--- a/target/classes/TestData/ebayData.xlsx
+++ b/target/classes/TestData/ebayData.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9105" windowHeight="4305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:G12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,21 +21,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>mayursraut97@gmail.com</t>
-  </si>
-  <si>
-    <t>Mayur@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayur </t>
-  </si>
-  <si>
-    <t>Raut</t>
-  </si>
-  <si>
-    <t>realme</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>Ramdas</t>
+  </si>
+  <si>
+    <t>Shitole</t>
+  </si>
+  <si>
+    <t>shitoler007@gmail.com</t>
+  </si>
+  <si>
+    <t>Ram@12334</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Realme GT Neo 3 Naruto Edition</t>
+  </si>
+  <si>
+    <t>Realme 6 Pro (Model: MX2063) 8GB/128GB Rojo relampago/ Lightning Red (Unlocked)</t>
+  </si>
+  <si>
+    <t>New Realme GT Neo3 5G Naruto Limited Edition 12+256GB Dimensity 8100 6.7" 50MP</t>
+  </si>
+  <si>
+    <t>Realme GT Neo 2 Dragon Ball Z Limited Edition 12+256GB 5G Android Smartphone New</t>
+  </si>
+  <si>
+    <t>Realme XT 128GB (Unlocked) Dual SIM 8GB RAM 4G LTE 64MP 6.4in Quad Camera</t>
+  </si>
+  <si>
+    <t>Realme GT Master Explore Edition 5G SmartPhone 6.55" Snapdragon 870 CN Version</t>
+  </si>
+  <si>
+    <t>Realme Narzo 50i Smartphone 4GB 64GB Octa Core 6.5" 5000 mAh Black Google Play</t>
+  </si>
+  <si>
+    <t>Realme Gt Neo3 6Gb 128Gb 80W Blue</t>
+  </si>
+  <si>
+    <t>Same Day Realme Gt Neo3 6Gb 128Gb Blue</t>
+  </si>
+  <si>
+    <t>Realme</t>
   </si>
 </sst>
 </file>
@@ -365,7 +397,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,25 +407,28 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -404,4 +439,69 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>